--- a/data/original_data.xlsx
+++ b/data/original_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Chatbot_DHBK\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CODE\Chatbot_BKDN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B1FCA-FF9A-4EA9-9FC0-434DA944EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD8B87-555D-4119-B181-3925AC5C7D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="708">
   <si>
     <t>id</t>
   </si>
@@ -2192,12 +2192,96 @@
   <si>
     <t xml:space="preserve"> Nhóm 6: Thí sinh đạt chứng chỉ quốc tế SAT (điểm mỗi phần tối thiểu 550) hoặc chứng chỉ ACT từ 24 điểm (thang điểm 36).</t>
   </si>
+  <si>
+    <t>các ngành đào tạo</t>
+  </si>
+  <si>
+    <t>"Công nghệ sinh học
+Công nghệ sinh học Y Dược
+Kỹ thuật máy tính
+Hệ thống Nhúng và IoT (Việt-Mỹ)
+Công nghệ thông tin (Hợp tác doanh nghiệp)
+Công nghệ thông tin (Ngoại ngữ Nhật)
+Khoa học dữ liệu và Trí tuệ nhân tạo
+Công nghệ kỹ thuật vật liệu xây dựng
+Công nghệ chế tạo máy
+Quản lý công nghiệp
+Công nghệ dầu khí và khai thác dầu
+Cơ khí động lực
+Cơ khí hàng không
+Kỹ thuật Cơ điện tử
+Kỹ thuật nhiệt
+Kỹ thuật hệ thống công nghiệp
+Kỹ thuật Tàu thủy
+Kỹ thuật ô tô
+Kỹ thuật Điện
+Kỹ thuật điện tử - viễn thông
+Vi điện tử - thiết kế vi mạch
+Kỹ thuật điện tử viễn thông (Việt - Mỹ)
+Kỹ thuật Điều khiển và Tự động hóa
+Kỹ thuật hóa học
+Kỹ thuật môi trường
+Công nghệ thực phẩm
+Kiến trúc
+Xây dựng dân dụng và công nghiệp
+Tin học xây dựng
+Quản lý xây dựng đô thị thông minh
+Mô hình thông tin &amp; trí tuệ nhân tạo trong xây dựng
+Kỹ thuật xây dựng công trình thủy
+Kỹ thuật xây dựng công trình giao thông
+Kỹ thuật cơ sở hạ tầng
+Kinh tế xây dựng
+Quản lý tài nguyên và môi trường
+Kỹ sư chất lượng cao Việt - Pháp (PFIEV)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đối tượng được tuyển thẳng, ưu tiên xét tuyển và cách xét tuyển </t>
+  </si>
+  <si>
+    <t>"Đối với phương thức xét tuyển thẳng, sẽ được thực hiện dựa trên các quy chế tuyển sinh đại học hệ chính quy và tuyển sinh cao đẳng nhóm ngành đào tạo giáo viên hệ chính quy của Bộ GD&amp;ĐT. 
+Nhà trường xét tuyển thẳng đối với các đối tượng sau:
+a) Anh hùng lao động, Anh hùng lực lượng vũ trang nhân dân, Chiến sĩ thi đua toàn quốc.
+b) Thí sinh đạt giải nhất, nhì, ba trong kỳ thi chọn học sinh giỏi quốc gia, quốc tế các môn Toán, Vật lý, Hóa học, Sinh học, Tin học do Bộ GDĐT tổ chức, cử tham gia. Thời gian đạt giải không quá 3 năm tính đến thời điểm xét tuyển.
+c) Thí sinh đạt giải nhất, nhì, ba trong kỳ thi khoa học, kỹ thuật cấp quốc gia, quốc tế do Bộ GDĐT tổ chức, cử tham gia. Thời gian đạt giải không quá 3 năm tính đến thời điểm xét tuyển.
+Nguyên tắc xét tuyển
+Thí sinh sẽ được xét tuyển vào ngành đúng trước, sau đó xét tuyển vào ngành gần. Có thể đăng ký tuyển thẳng vào nhiều ngành khác nhau, theo thứ tự ưu tiên. Việc xét tuyển thực hiện theo nguyên tắc từ cao xuống thấp cho đến khi đủ chỉ tiêu. Thứ tự ưu tiên sẽ dựa trên nguyện vọng từ 1 đến hết. Nếu thí sinh đã trúng tuyển nguyện vọng 1, sẽ không được xét tuyển các nguyện vọng tiếp theo."</t>
+  </si>
+  <si>
+    <t>Đăng ký học thạc sĩ chính quy</t>
+  </si>
+  <si>
+    <t>Liên hệ Phòng công tác sinh viên</t>
+  </si>
+  <si>
+    <t>Lý do bạn nên chọn Đại học Bách Khoa</t>
+  </si>
+  <si>
+    <t>"Lý do nên theo học tại Trường Đại học Bách Khoa - Đại học Đà Nẵng
+1. Danh tiếng và chất lượng đào tạo
+Là một trong những trường đại học kỹ thuật hàng đầu tại Việt Nam, thuộc hệ thống Đại học Đà Nẵng.
+Được kiểm định chất lượng bởi các tổ chức quốc tế như AUN-QA, ABET (chuẩn kiểm định chất lượng giáo dục khu vực và quốc tế).
+2. Chương trình đào tạo tiên tiến
+Đào tạo đa ngành với các lĩnh vực kỹ thuật, công nghệ, khoa học máy tính, xây dựng, cơ khí, điện - điện tử,...
+Nhiều chương trình liên kết quốc tế với các trường đại học danh tiếng trên thế giới.
+Đổi mới giáo trình theo hướng ứng dụng thực tiễn và nghiên cứu chuyên sâu.
+3. Cơ hội việc làm rộng mở
+Tỷ lệ sinh viên tốt nghiệp có việc làm cao, được các doanh nghiệp lớn trong và ngoài nước đánh giá cao.
+Hợp tác với nhiều công ty, tập đoàn lớn như FPT, Samsung, Bosch, Intel, Microsoft,... giúp sinh viên có nhiều cơ hội thực tập và làm việc.
+4. Cơ sở vật chất hiện đại
+Trang bị phòng thí nghiệm, xưởng thực hành tiên tiến, thư viện hiện đại phục vụ nhu cầu học tập và nghiên cứu.
+Khuôn viên rộng rãi, ký túc xá tiện nghi, phục vụ tốt cho sinh viên.
+5. Hoạt động sinh viên phong phú
+Đa dạng các câu lạc bộ học thuật, kỹ năng mềm, thể thao và văn hóa.
+Nhiều chương trình, cuộc thi sáng tạo và nghiên cứu khoa học dành cho sinh viên.
+6. Vị trí địa lý thuận lợi
+Nằm ở thành phố Đà Nẵng – một trong những thành phố đáng sống nhất Việt Nam với môi trường thân thiện, khí hậu dễ chịu và nhiều cơ hội phát triển."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2225,16 +2309,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2257,12 +2358,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2282,13 +2453,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CF633656-0065-47AE-BE13-CCF01B3F7936}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2585,21 +2809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="C382" sqref="C382:C385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="127" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="60.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2621,7 +2845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2632,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2643,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2654,7 +2878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2665,7 +2889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2676,7 +2900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2687,7 +2911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2698,7 +2922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2709,7 +2933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2720,7 +2944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2731,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2742,7 +2966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2753,7 +2977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2764,7 +2988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2775,7 +2999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2786,7 +3010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2797,7 +3021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2808,7 +3032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2819,7 +3043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2830,7 +3054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2841,7 +3065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2852,7 +3076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2863,7 +3087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2874,7 +3098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2885,7 +3109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2896,7 +3120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2907,7 +3131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2918,7 +3142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2929,7 +3153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2940,7 +3164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2951,7 +3175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2962,7 +3186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2973,7 +3197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2984,7 +3208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2995,7 +3219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3006,7 +3230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3017,7 +3241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3028,7 +3252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3039,7 +3263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3050,7 +3274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3061,7 +3285,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3072,7 +3296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3083,7 +3307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3094,7 +3318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3105,7 +3329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3116,7 +3340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3127,7 +3351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3138,7 +3362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3149,7 +3373,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3160,7 +3384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3171,7 +3395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3182,7 +3406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3193,7 +3417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3204,7 +3428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3215,7 +3439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3226,7 +3450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3237,7 +3461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3248,7 +3472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3259,7 +3483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3270,7 +3494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3281,7 +3505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3292,7 +3516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3303,7 +3527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3314,7 +3538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3325,7 +3549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3336,7 +3560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3347,7 +3571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3358,7 +3582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3369,7 +3593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3380,7 +3604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3391,7 +3615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3402,7 +3626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3413,7 +3637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3424,7 +3648,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3435,7 +3659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3446,7 +3670,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3457,7 +3681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3468,7 +3692,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3479,7 +3703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3490,7 +3714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3501,7 +3725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3512,7 +3736,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3523,7 +3747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3534,7 +3758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3545,7 +3769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3556,7 +3780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3567,7 +3791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3578,7 +3802,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3589,7 +3813,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3600,7 +3824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3611,7 +3835,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3622,7 +3846,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3633,7 +3857,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3644,7 +3868,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3655,7 +3879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3666,7 +3890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3677,7 +3901,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3688,7 +3912,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3699,7 +3923,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3710,7 +3934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3721,7 +3945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3732,7 +3956,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3743,7 +3967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3754,7 +3978,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3765,7 +3989,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3776,7 +4000,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3787,7 +4011,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3798,7 +4022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3809,7 +4033,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3820,7 +4044,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3831,7 +4055,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3842,7 +4066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3853,7 +4077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3864,7 +4088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3875,7 +4099,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3886,7 +4110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3897,7 +4121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3908,7 +4132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3919,7 +4143,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3930,7 +4154,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3941,7 +4165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3952,7 +4176,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3963,7 +4187,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3974,7 +4198,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3985,7 +4209,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3996,7 +4220,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4007,7 +4231,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4018,7 +4242,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4029,7 +4253,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4040,7 +4264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4051,7 +4275,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4062,7 +4286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4073,7 +4297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4084,7 +4308,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4095,7 +4319,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4106,7 +4330,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4117,7 +4341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4128,7 +4352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4139,7 +4363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4150,7 +4374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4161,7 +4385,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4172,7 +4396,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4183,7 +4407,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4194,7 +4418,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4205,7 +4429,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4216,7 +4440,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4227,7 +4451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4238,7 +4462,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4249,7 +4473,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4260,7 +4484,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4271,7 +4495,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4282,7 +4506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4293,7 +4517,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4304,7 +4528,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4315,7 +4539,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4326,7 +4550,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4337,7 +4561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4348,7 +4572,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4359,7 +4583,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4370,7 +4594,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4381,7 +4605,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4392,7 +4616,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4403,7 +4627,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4414,7 +4638,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4425,7 +4649,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4436,7 +4660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4447,7 +4671,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4458,7 +4682,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4469,7 +4693,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4480,7 +4704,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4491,7 +4715,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4502,7 +4726,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4513,7 +4737,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4524,7 +4748,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4535,7 +4759,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4546,7 +4770,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4557,7 +4781,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4568,7 +4792,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4579,7 +4803,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4590,7 +4814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4601,7 +4825,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4612,7 +4836,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4623,7 +4847,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4634,7 +4858,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4645,7 +4869,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4656,7 +4880,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4667,7 +4891,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4678,7 +4902,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4689,7 +4913,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4700,7 +4924,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4711,7 +4935,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4722,7 +4946,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4733,7 +4957,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4744,7 +4968,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4755,7 +4979,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4766,7 +4990,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4777,7 +5001,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4788,7 +5012,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4799,7 +5023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4810,7 +5034,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4821,7 +5045,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4832,7 +5056,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4843,7 +5067,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4854,7 +5078,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4865,7 +5089,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4876,7 +5100,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4887,7 +5111,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4898,7 +5122,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4909,7 +5133,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4920,7 +5144,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4931,7 +5155,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4942,7 +5166,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4953,7 +5177,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4964,7 +5188,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4975,7 +5199,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4986,7 +5210,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4997,7 +5221,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5008,7 +5232,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5019,7 +5243,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5030,7 +5254,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5041,7 +5265,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5052,7 +5276,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5063,7 +5287,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5074,7 +5298,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5085,7 +5309,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5096,7 +5320,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5107,7 +5331,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5118,7 +5342,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5129,7 +5353,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5140,7 +5364,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5151,7 +5375,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5162,7 +5386,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5173,7 +5397,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5184,7 +5408,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5195,7 +5419,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5206,7 +5430,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5217,7 +5441,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5228,7 +5452,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5239,7 +5463,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5250,7 +5474,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5261,7 +5485,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5272,7 +5496,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5283,7 +5507,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5294,7 +5518,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5305,7 +5529,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5316,7 +5540,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5327,7 +5551,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5338,7 +5562,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5349,7 +5573,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5360,7 +5584,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5371,7 +5595,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5382,7 +5606,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5393,7 +5617,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5404,7 +5628,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5415,7 +5639,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5426,7 +5650,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5437,7 +5661,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5448,7 +5672,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5459,7 +5683,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5470,7 +5694,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5481,7 +5705,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5492,7 +5716,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5503,7 +5727,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5514,7 +5738,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5525,7 +5749,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5536,7 +5760,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5547,7 +5771,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5558,7 +5782,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5569,7 +5793,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5580,7 +5804,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5591,7 +5815,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5602,7 +5826,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5613,7 +5837,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5624,7 +5848,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5635,7 +5859,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5646,7 +5870,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5657,7 +5881,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5668,7 +5892,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5679,7 +5903,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5690,7 +5914,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5701,7 +5925,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5712,7 +5936,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5723,7 +5947,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5734,7 +5958,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5745,7 +5969,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5756,7 +5980,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5767,7 +5991,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5778,7 +6002,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5789,7 +6013,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5800,7 +6024,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5811,7 +6035,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5822,7 +6046,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5833,7 +6057,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5844,7 +6068,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5855,7 +6079,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5866,7 +6090,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5877,7 +6101,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5888,7 +6112,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5899,7 +6123,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -5910,7 +6134,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -5921,7 +6145,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -5932,7 +6156,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -5943,7 +6167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -5954,7 +6178,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -5965,7 +6189,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -5976,7 +6200,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -5987,7 +6211,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -5998,7 +6222,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6009,7 +6233,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6020,7 +6244,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6031,7 +6255,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6042,7 +6266,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6053,7 +6277,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6064,7 +6288,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6075,7 +6299,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6086,7 +6310,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6097,7 +6321,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6108,7 +6332,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6119,7 +6343,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6130,7 +6354,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6141,7 +6365,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6152,7 +6376,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6163,7 +6387,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6174,7 +6398,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6185,7 +6409,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6196,7 +6420,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6207,7 +6431,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6218,7 +6442,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6229,7 +6453,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6240,7 +6464,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6251,7 +6475,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6262,7 +6486,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6273,7 +6497,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6284,7 +6508,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6295,7 +6519,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -6306,7 +6530,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -6317,7 +6541,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6328,7 +6552,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6339,7 +6563,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6350,7 +6574,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6361,7 +6585,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6372,7 +6596,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6383,7 +6607,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6394,7 +6618,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6405,7 +6629,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6416,7 +6640,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6427,7 +6651,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6438,7 +6662,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6449,7 +6673,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6460,7 +6684,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6471,7 +6695,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6482,7 +6706,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6493,7 +6717,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6504,7 +6728,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6515,7 +6739,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6526,7 +6750,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6537,7 +6761,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6548,7 +6772,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6559,7 +6783,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6570,7 +6794,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6581,7 +6805,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6592,7 +6816,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6603,7 +6827,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6614,7 +6838,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>361</v>
       </c>
@@ -6625,7 +6849,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>362</v>
       </c>
@@ -6636,7 +6860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>363</v>
       </c>
@@ -6647,7 +6871,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>364</v>
       </c>
@@ -6658,7 +6882,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>361</v>
       </c>
@@ -6669,7 +6893,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>362</v>
       </c>
@@ -6680,7 +6904,184 @@
         <v>699</v>
       </c>
     </row>
+    <row r="372" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B373" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="23"/>
+      <c r="B376" s="12"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
+    </row>
+    <row r="377" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="23"/>
+      <c r="B377" s="12"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="23"/>
+      <c r="B378" s="12"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="23"/>
+      <c r="B379" s="12"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="23"/>
+      <c r="B380" s="12"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="14"/>
+    </row>
+    <row r="381" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="23"/>
+      <c r="B381" s="12"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="15"/>
+      <c r="E381" s="15"/>
+    </row>
+    <row r="382" spans="1:5" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="23"/>
+      <c r="B382" s="12"/>
+      <c r="C382" s="20"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="13"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="23"/>
+      <c r="B383" s="12"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="14"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="23"/>
+      <c r="B384" s="12"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14"/>
+    </row>
+    <row r="385" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="23"/>
+      <c r="B385" s="12"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="15"/>
+      <c r="E385" s="15"/>
+    </row>
+    <row r="386" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="23"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="22"/>
+      <c r="D386" s="17"/>
+      <c r="E386" s="17"/>
+    </row>
+    <row r="387" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="23"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+    </row>
+    <row r="388" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="23"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="21"/>
+      <c r="D388" s="16"/>
+      <c r="E388" s="16"/>
+    </row>
+    <row r="389" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="23"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="21"/>
+      <c r="D389" s="16"/>
+      <c r="E389" s="16"/>
+    </row>
+    <row r="390" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="23"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="21"/>
+      <c r="D390" s="16"/>
+      <c r="E390" s="16"/>
+    </row>
+    <row r="391" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="23"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="21"/>
+      <c r="D391" s="16"/>
+      <c r="E391" s="16"/>
+    </row>
+    <row r="392" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="23"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="21"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C395" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A386:A392"/>
+    <mergeCell ref="C386:C392"/>
+    <mergeCell ref="D386:D392"/>
+    <mergeCell ref="B376:B381"/>
+    <mergeCell ref="E376:E381"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="B386:B392"/>
+    <mergeCell ref="E386:E392"/>
+    <mergeCell ref="C377:C381"/>
+    <mergeCell ref="A376:A381"/>
+    <mergeCell ref="D376:D381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="D382:D385"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C352" r:id="rId1" display="https://dut.udn.vn/Tuyensinh2024/Gioithieu/id/8915" xr:uid="{9503F619-BBD6-460E-8BC1-B3F42BC85E51}"/>
   </hyperlinks>
